--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed4/result_data_RandomForest.xlsx
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.43250000000001</v>
+        <v>13.72050000000001</v>
       </c>
     </row>
     <row r="10">
@@ -661,7 +661,7 @@
         <v>-8.92</v>
       </c>
       <c r="E13" t="n">
-        <v>12.83169999999999</v>
+        <v>12.3824</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.59760000000001</v>
+        <v>12.52370000000001</v>
       </c>
     </row>
     <row r="17">
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.83889999999999</v>
+        <v>12.8457</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.95729999999999</v>
+        <v>13.13939999999999</v>
       </c>
     </row>
     <row r="21">
